--- a/database/template/BAN.xlsx
+++ b/database/template/BAN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="233">
   <si>
     <t>Chi nhánh</t>
   </si>
@@ -712,13 +712,19 @@
   </si>
   <si>
     <t>RBAN213</t>
+  </si>
+  <si>
+    <t>BAN0311</t>
+  </si>
+  <si>
+    <t>BAT_T3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,6 +745,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -748,7 +760,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -771,16 +783,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1106,7 @@
     <col min="5" max="5" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5017,6 +5045,23 @@
       </c>
       <c r="E219" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
